--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7e5c377be8d7b3/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{36A9865F-1FD6-4539-8152-0D08FBDABFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2E384A-05E8-4E77-AF55-A4CFC5A92D59}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{B9CACA1A-5F7C-41FE-AAB2-8B80FE759478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B18E53-03E3-445D-8E7E-4DE25B2849F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Sno</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Vimal</t>
+  </si>
+  <si>
+    <t>SearchName</t>
   </si>
 </sst>
 </file>
@@ -366,19 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -400,7 +425,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>